--- a/IL6MCP1/OUTPUT/20200625.AEDB.CEA.Bin.Uni.Protein.RANK.Symptoms.MODEL1.xlsx
+++ b/IL6MCP1/OUTPUT/20200625.AEDB.CEA.Bin.Uni.Protein.RANK.Symptoms.MODEL1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">Dataset</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t xml:space="preserve">AsymptSympt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCP1_pg_ml_2015_rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCP1_rank</t>
   </si>
 </sst>
 </file>
@@ -461,43 +467,143 @@
         <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>0.263965063264116</v>
+        <v>0.25662079501451</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0937598006657805</v>
+        <v>0.103615919706583</v>
       </c>
       <c r="F2" t="n">
-        <v>1.30208270498668</v>
+        <v>1.2925548905567</v>
       </c>
       <c r="G2" t="n">
-        <v>1.08349925451424</v>
+        <v>1.05499243088912</v>
       </c>
       <c r="H2" t="n">
-        <v>1.56476283999432</v>
+        <v>1.58361149917828</v>
       </c>
       <c r="I2" t="n">
-        <v>2.81533302534478</v>
+        <v>2.47665412555525</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00487267107691154</v>
+        <v>0.0132620351176338</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0264175711607995</v>
+        <v>0.0492000032274128</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0180907667050042</v>
+        <v>0.0333926841209994</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0362569039445332</v>
+        <v>0.066976075339553</v>
       </c>
       <c r="N2" t="n">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="O2" t="n">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="P2" t="n">
-        <v>50.5989260636101</v>
+        <v>50.5571605447792</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.333701213521244</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.109349512370776</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.39612593769705</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.1267937037459</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.72983539704799</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.05169365904211</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0022755420659224</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.0531850916171955</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.0360284731597776</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.0722905320328805</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2423</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1199</v>
+      </c>
+      <c r="P3" t="n">
+        <v>50.5158893933141</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.365453270635651</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.125363018444617</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.44116709885159</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.12720571816695</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.84257635792503</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.91516010997375</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.00355506107610972</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0327959127873894</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.0278573516612683</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.0482411855261864</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2423</v>
+      </c>
+      <c r="O4" t="n">
+        <v>556</v>
+      </c>
+      <c r="P4" t="n">
+        <v>77.05323978539</v>
       </c>
     </row>
   </sheetData>
